--- a/xlsx/科迪勒拉山系_intext.xlsx
+++ b/xlsx/科迪勒拉山系_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>科迪勒拉山系</t>
   </si>
@@ -29,7 +29,7 @@
     <t>南美洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_科迪勒拉山系</t>
+    <t>政策_政策_美国_科迪勒拉山系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%9C%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>火地島</t>
+    <t>火地岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%83%AD%E5%B8%A6</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E7%B4%80</t>
   </si>
   <si>
-    <t>賓夕法尼亞紀</t>
+    <t>宾夕法尼亚纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E5%B1%B1%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>造山運動</t>
+    <t>造山运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%9A%84%E5%88%97%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>安的列斯群島</t>
+    <t>安的列斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%B4%80</t>
   </si>
   <si>
-    <t>第三紀</t>
+    <t>第三纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%AC%AC%E6%96%AF%E5%B1%B1%E8%84%89</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%88%A9%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福利亞州</t>
+    <t>加利福利亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -449,13 +449,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%91%BD%E4%BA%95</t>
   </si>
   <si>
-    <t>鑽井</t>
+    <t>钻井</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/coalbed_methane</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E7%A9%8D%E7%9B%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>沉積盆地</t>
+    <t>沉积盆地</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/San_Juan_Basin</t>
@@ -497,9 +494,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%89%98%E8%A5%BF</t>
   </si>
   <si>
@@ -509,13 +503,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BE%85%E5%BE%B7%E5%B8%95%E6%96%AF%E7%A7%91</t>
   </si>
   <si>
-    <t>塞羅德帕斯科</t>
+    <t>塞罗德帕斯科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E4%BB%96%E6%B2%B3</t>
@@ -533,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%83%B9%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>物價革命</t>
+    <t>物价革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -3063,7 +3054,7 @@
         <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -3089,10 +3080,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3118,10 +3109,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3147,10 +3138,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3176,10 +3167,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3205,10 +3196,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3234,10 +3225,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3263,10 +3254,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3292,10 +3283,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3321,10 +3312,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3350,10 +3341,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3379,10 +3370,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3408,10 +3399,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3437,10 +3428,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3466,10 +3457,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3495,10 +3486,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -3524,10 +3515,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3553,10 +3544,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3582,10 +3573,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3611,10 +3602,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3640,10 +3631,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3669,10 +3660,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
